--- a/2.확인검사 조사표.xlsx
+++ b/2.확인검사 조사표.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조성주\Desktop\김선미\AI확인하기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE07819-5B22-4A41-8B99-4314EE138A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF1F1B-E983-48DB-B429-90368EEC2D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-705" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-705" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갑지" sheetId="12" r:id="rId1"/>
-    <sheet name="시료채춰지점" sheetId="1" r:id="rId2"/>
+    <sheet name="시료채취지점" sheetId="1" r:id="rId2"/>
     <sheet name="측정소 입지조건" sheetId="2" r:id="rId3"/>
     <sheet name="측정소 구조 및 설비" sheetId="3" r:id="rId4"/>
     <sheet name="시료채취조" sheetId="4" r:id="rId5"/>
@@ -5794,6 +5794,150 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5809,15 +5953,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5827,241 +5962,166 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6070,27 +6130,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6106,12 +6145,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -6127,30 +6160,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6163,25 +6172,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6731,37 +6731,37 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="149" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="136" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="137"/>
+      <c r="F1" s="150"/>
       <c r="G1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="116" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="61" t="s">
         <v>243</v>
       </c>
       <c r="G2" s="27" t="s">
@@ -6769,78 +6769,78 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="38"/>
-      <c r="B5" s="118" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="21"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -6849,79 +6849,79 @@
       <c r="D10" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="154" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="138" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
-      <c r="A11" s="141"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="29" t="s">
         <v>246</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="120"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="139"/>
     </row>
     <row r="12" spans="1:7" ht="17.25">
-      <c r="A12" s="141"/>
-      <c r="B12" s="116" t="s">
+      <c r="A12" s="152"/>
+      <c r="B12" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="141"/>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="152"/>
+      <c r="B13" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
-      <c r="A14" s="141"/>
-      <c r="B14" s="118" t="s">
+      <c r="A14" s="152"/>
+      <c r="B14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="141"/>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="152"/>
+      <c r="B15" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="142"/>
-      <c r="B16" s="116" t="s">
+      <c r="A16" s="153"/>
+      <c r="B16" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="21"/>
     </row>
   </sheetData>
@@ -6954,16 +6954,16 @@
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="155"/>
+      <c r="E1" s="158"/>
       <c r="F1" s="15" t="s">
         <v>252</v>
       </c>
@@ -6972,65 +6972,65 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="145" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="145" t="s">
+      <c r="E2" s="160"/>
+      <c r="F2" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="146"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="149" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="146"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="147"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="150" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="114">
       <c r="A5" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="128"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="26" t="s">
         <v>265</v>
       </c>
@@ -7039,15 +7039,15 @@
       <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="27" t="s">
         <v>266</v>
       </c>
@@ -7056,15 +7056,15 @@
       <c r="A7" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
@@ -7072,34 +7072,34 @@
         <v>261</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="21"/>
     </row>
   </sheetData>
@@ -7117,94 +7117,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CDFA22-4E8F-427A-9864-B16C905C110B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5" ht="171">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="163" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="163" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="163" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="163" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="160" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="162"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="165" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="164"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="166"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="166"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="166"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="166"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="164"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -7215,6 +7210,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7225,7 +7225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7235,26 +7235,26 @@
     <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="85" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -7273,11 +7273,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="37.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="24" t="s">
         <v>25</v>
       </c>
@@ -7285,11 +7285,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48">
+    <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
@@ -7297,31 +7297,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="48">
+    <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="84">
+    <row r="8" spans="1:4" ht="24">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="85" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -7331,9 +7331,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36">
+    <row r="9" spans="1:4">
       <c r="A9" s="20"/>
-      <c r="B9" s="38"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="24" t="s">
         <v>34</v>
       </c>
@@ -7343,15 +7343,15 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="20"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="48">
+    <row r="11" spans="1:4" ht="24">
       <c r="A11" s="20"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="85" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -7361,9 +7361,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24">
+    <row r="12" spans="1:4">
       <c r="A12" s="20"/>
-      <c r="B12" s="38"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
@@ -7371,9 +7371,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
+    <row r="13" spans="1:4">
       <c r="A13" s="20"/>
-      <c r="B13" s="38"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
@@ -7383,53 +7383,53 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="20"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="30"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="67.5">
+    <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="20"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:4" ht="33.75">
+    <row r="16" spans="1:4">
       <c r="A16" s="20"/>
-      <c r="B16" s="38"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="20"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:4" ht="33.75">
+    <row r="18" spans="1:4">
       <c r="A18" s="20"/>
-      <c r="B18" s="38"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4" ht="33.75">
+    <row r="19" spans="1:4">
       <c r="A19" s="20"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:4" ht="36">
+    <row r="20" spans="1:4">
       <c r="A20" s="20"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="85" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -7439,9 +7439,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36">
+    <row r="21" spans="1:4">
       <c r="A21" s="20"/>
-      <c r="B21" s="38"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
@@ -7449,9 +7449,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="48">
+    <row r="22" spans="1:4">
       <c r="A22" s="20"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
@@ -7459,41 +7459,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36">
+    <row r="23" spans="1:4">
       <c r="A23" s="20"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:4" ht="24">
+    <row r="24" spans="1:4">
       <c r="A24" s="20"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="1:4" ht="36">
+    <row r="25" spans="1:4">
       <c r="A25" s="20"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4" ht="36">
+    <row r="26" spans="1:4">
       <c r="A26" s="20"/>
-      <c r="B26" s="38"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:4" ht="48">
+    <row r="27" spans="1:4">
       <c r="A27" s="21"/>
-      <c r="B27" s="39"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="25" t="s">
         <v>52</v>
       </c>
@@ -7501,12 +7501,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7525,10 +7525,10 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="48">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="26" t="s">
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="85" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -7547,7 +7547,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36">
-      <c r="A3" s="39"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="25" t="s">
         <v>57</v>
       </c>
@@ -7556,19 +7556,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="60">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="88" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -7576,15 +7576,15 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="29" t="s">
         <v>31</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="39">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -7619,7 +7619,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="85" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -7630,7 +7630,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5">
-      <c r="A12" s="38"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="24" t="s">
         <v>68</v>
       </c>
@@ -7639,14 +7639,14 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="21"/>
       <c r="C13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="85" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="48">
-      <c r="A15" s="38"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="24" t="s">
         <v>71</v>
       </c>
@@ -7666,7 +7666,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
-      <c r="A16" s="38"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="24" t="s">
         <v>72</v>
       </c>
@@ -7675,28 +7675,28 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="24">
-      <c r="A17" s="38"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" ht="36">
-      <c r="A18" s="38"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="36">
-      <c r="A19" s="38"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" ht="24">
-      <c r="A20" s="39"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="25" t="s">
         <v>76</v>
       </c>
@@ -7726,7 +7726,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="166.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="85" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -7737,8 +7737,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -7746,8 +7746,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="27">
-      <c r="A3" s="38"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -7755,38 +7755,38 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39">
-      <c r="A4" s="38"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="38" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="27">
-      <c r="A5" s="38"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" ht="24">
-      <c r="A6" s="38"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" ht="25.5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="40.5">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -7794,8 +7794,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -7803,8 +7803,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="40.5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="38" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -7812,57 +7812,57 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="69">
-      <c r="A11" s="38"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="27">
-      <c r="A12" s="38"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="38" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" ht="63">
-      <c r="A13" s="38"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="38" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3" ht="49.5">
-      <c r="A14" s="38"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="24" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3" ht="42">
-      <c r="A15" s="38"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="38" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" ht="48">
-      <c r="A16" s="38"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="70.5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="86"/>
+      <c r="B17" s="39" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="111">
-      <c r="A18" s="38"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -7870,8 +7870,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="54">
-      <c r="A19" s="38"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="38" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -7879,8 +7879,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="54">
-      <c r="A20" s="38"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="38" t="s">
         <v>100</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -7888,24 +7888,24 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="54">
-      <c r="A21" s="38"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="38" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" ht="40.5">
-      <c r="A22" s="39"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" ht="211.5" customHeight="1">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="41" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -7913,7 +7913,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="61.5">
-      <c r="A24" s="38"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="24" t="s">
         <v>105</v>
       </c>
@@ -7922,7 +7922,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="24">
-      <c r="A25" s="38"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="24" t="s">
         <v>106</v>
       </c>
@@ -7931,31 +7931,31 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="48">
-      <c r="A26" s="38"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" ht="28.5">
-      <c r="A27" s="38"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="86"/>
+      <c r="B27" s="38" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" ht="40.5">
-      <c r="A28" s="39"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="156.75" customHeight="1">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="41" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -7963,7 +7963,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36">
-      <c r="A30" s="57"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="24" t="s">
         <v>112</v>
       </c>
@@ -7972,7 +7972,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.5">
-      <c r="A31" s="57"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="24" t="s">
         <v>113</v>
       </c>
@@ -7981,22 +7981,22 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.5">
-      <c r="A32" s="57"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="96">
       <c r="A34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="41" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -8004,10 +8004,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="121.5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -8015,7 +8015,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="49.5">
-      <c r="A36" s="51"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -8024,17 +8024,17 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="60">
-      <c r="A37" s="52"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="25" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3" ht="78" customHeight="1">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="41" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="26" t="s">
@@ -8042,8 +8042,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="37.5">
-      <c r="A39" s="38"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="86"/>
+      <c r="B39" s="45" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -8051,17 +8051,17 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="189" customHeight="1">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="46" t="s">
         <v>125</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -8069,8 +8069,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="51">
-      <c r="A42" s="38"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="86"/>
+      <c r="B42" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -8078,8 +8078,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="48">
-      <c r="A43" s="38"/>
-      <c r="B43" s="42" t="s">
+      <c r="A43" s="86"/>
+      <c r="B43" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="27" t="s">
@@ -8087,27 +8087,27 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="48">
-      <c r="A44" s="38"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="86"/>
+      <c r="B44" s="37" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="24">
-      <c r="A45" s="39"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="47" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A41:A45"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="A8:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8125,11 +8125,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="208.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="41" t="s">
         <v>132</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -8137,10 +8137,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="24" t="s">
         <v>133</v>
       </c>
@@ -8149,8 +8149,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="24" t="s">
         <v>134</v>
       </c>
@@ -8159,49 +8159,49 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="37.5">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="24" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="37.5">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="39">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" ht="57">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="41" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -8209,8 +8209,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="48">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="24" t="s">
         <v>141</v>
       </c>
@@ -8219,9 +8219,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="46.5">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -8229,86 +8229,86 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="46" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="87">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="37.5">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="45">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="24" t="s">
         <v>146</v>
       </c>
       <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="60">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="24" t="s">
         <v>147</v>
       </c>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="139.5">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="39" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="171" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="23" t="s">
         <v>154</v>
       </c>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="27">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="24" t="s">
         <v>155</v>
       </c>
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="36.75" thickBot="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="82"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="24" t="s">
         <v>156</v>
       </c>
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="49" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -8317,10 +8317,10 @@
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="36.75" thickTop="1">
-      <c r="A22" s="61">
+      <c r="A22" s="50">
         <v>100</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="50">
         <v>140</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -8329,10 +8329,10 @@
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="24">
-      <c r="A23" s="62">
+      <c r="A23" s="51">
         <v>110</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="51">
         <v>130</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -8341,10 +8341,10 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="37.5">
-      <c r="A24" s="62">
+      <c r="A24" s="51">
         <v>120</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="51">
         <v>117</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -8353,10 +8353,10 @@
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="37.5">
-      <c r="A25" s="62">
+      <c r="A25" s="51">
         <v>130</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="51">
         <v>109</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -8365,10 +8365,10 @@
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="60">
-      <c r="A26" s="62">
+      <c r="A26" s="51">
         <v>140</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="51">
         <v>107</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -8377,10 +8377,10 @@
       <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="24">
-      <c r="A27" s="62">
+      <c r="A27" s="51">
         <v>150</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="51">
         <v>104</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -8389,10 +8389,10 @@
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="49.5">
-      <c r="A28" s="62">
+      <c r="A28" s="51">
         <v>160</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="51">
         <v>96</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -8401,10 +8401,10 @@
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="39">
-      <c r="A29" s="62">
+      <c r="A29" s="51">
         <v>170</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="51">
         <v>89</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -8413,22 +8413,22 @@
       <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="51">
-      <c r="A30" s="62">
+      <c r="A30" s="51">
         <v>180</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="51">
         <v>84</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="45" t="s">
         <v>166</v>
       </c>
       <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="50.25" thickBot="1">
-      <c r="A31" s="63">
+      <c r="A31" s="52">
         <v>200</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="52">
         <v>74</v>
       </c>
       <c r="C31" s="24" t="s">
@@ -8437,34 +8437,34 @@
       <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickTop="1">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="24" t="s">
         <v>168</v>
       </c>
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="53" t="s">
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="45" t="s">
         <v>169</v>
       </c>
       <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="85.5">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="45" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" ht="36">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="24" t="s">
         <v>171</v>
       </c>
@@ -8473,27 +8473,27 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="51"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="52"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="64" t="s">
+      <c r="B38" s="95"/>
+      <c r="C38" s="53" t="s">
         <v>173</v>
       </c>
       <c r="D38" s="26" t="s">
@@ -8501,8 +8501,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24">
-      <c r="A39" s="83"/>
-      <c r="B39" s="88"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="24" t="s">
         <v>174</v>
       </c>
@@ -8511,8 +8511,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="36">
-      <c r="A40" s="89"/>
-      <c r="B40" s="90"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="25" t="s">
         <v>175</v>
       </c>
@@ -8522,6 +8522,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A38:B40"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
@@ -8529,18 +8541,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8558,31 +8558,31 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6" ht="114" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="98"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="132"/>
+      <c r="B2" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="56" t="s">
         <v>179</v>
       </c>
       <c r="F2" s="27" t="s">
@@ -8590,339 +8590,358 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="98"/>
-      <c r="B3" s="62">
+      <c r="A3" s="132"/>
+      <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51">
         <v>4</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="98"/>
-      <c r="B4" s="62">
+      <c r="A4" s="132"/>
+      <c r="B4" s="51">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51">
         <v>5</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="98"/>
-      <c r="B5" s="62">
+      <c r="A5" s="132"/>
+      <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51">
         <v>6</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="98"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="66"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="107"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="98"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="98"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="132"/>
+      <c r="B8" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="98"/>
-      <c r="B9" s="106" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="99"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="76"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="81">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="67.5">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21"/>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="81">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="67.5">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="74"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="81">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="74"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.5">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="74"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="95"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="76"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.5">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="74"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="54">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="74"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="54">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="74"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="92"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="74"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="95"/>
-      <c r="B28" s="75" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="76"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="36">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="62"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
@@ -8930,25 +8949,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8966,63 +8966,63 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="36">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="140"/>
       <c r="D1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="33"/>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="117"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="36">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="37.5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="117"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="97.5">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="117"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="21"/>
     </row>
   </sheetData>
@@ -9049,60 +9049,60 @@
       <c r="A1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="123"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="124"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="96">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="63" t="s">
         <v>229</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="20"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="20"/>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="124"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="21"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="124"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="21"/>
     </row>
   </sheetData>
@@ -9122,22 +9122,22 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7" ht="120.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="147" t="s">
         <v>237</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -9145,92 +9145,92 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="130"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="126" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="135"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="130"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="130"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="143"/>
+      <c r="B4" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="130"/>
-      <c r="B5" s="118" t="s">
+      <c r="A5" s="143"/>
+      <c r="B5" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="130"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="143"/>
+      <c r="B7" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="131"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="21"/>
     </row>
   </sheetData>
